--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,15 +13,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
-  <si>
-    <t>Var1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="34">
+  <si>
+    <t>IDdelpaciente</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>27-May-2025</t>
+  </si>
+  <si>
+    <t>28-May-2025</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>29-May-2025</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>PA8653</t>
+  </si>
+  <si>
+    <t>24-Jun-2025</t>
+  </si>
+  <si>
+    <t>PA0002</t>
+  </si>
+  <si>
+    <t>04-Jun-2025</t>
+  </si>
+  <si>
+    <t>PAPAPA</t>
+  </si>
+  <si>
+    <t>PA0202</t>
+  </si>
+  <si>
+    <t>PA1234</t>
+  </si>
+  <si>
+    <t>PA0022</t>
   </si>
   <si>
     <t>PA0101</t>
   </si>
   <si>
-    <t>Var2</t>
+    <t>PA0333</t>
+  </si>
+  <si>
+    <t>PA0007</t>
+  </si>
+  <si>
+    <t>PA0102</t>
+  </si>
+  <si>
+    <t>PA1111</t>
+  </si>
+  <si>
+    <t>PA0001</t>
+  </si>
+  <si>
+    <t>PA5555</t>
+  </si>
+  <si>
+    <t>PA7333</t>
+  </si>
+  <si>
+    <t>PA1212</t>
+  </si>
+  <si>
+    <t>PA1112</t>
+  </si>
+  <si>
+    <t>PA1235</t>
+  </si>
+  <si>
+    <t>PA7777</t>
+  </si>
+  <si>
+    <t>PA4444</t>
   </si>
 </sst>
 </file>
@@ -67,14 +160,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="true"/>
-    <col min="2" max="2" width="4.77734375" customWidth="true"/>
+    <col min="1" max="1" width="12.36328125" customWidth="true"/>
+    <col min="2" max="2" width="15.54296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -89,8 +182,294 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
         <v>45813</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45817</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="53" uniqueCount="34">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,6 +472,14 @@
         <v>45817</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45817</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,15 +13,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
-  <si>
-    <t>Var1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="53" uniqueCount="34">
+  <si>
+    <t>IDdelpaciente</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>27-May-2025</t>
+  </si>
+  <si>
+    <t>28-May-2025</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>29-May-2025</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>PA8653</t>
+  </si>
+  <si>
+    <t>24-Jun-2025</t>
+  </si>
+  <si>
+    <t>PA0002</t>
+  </si>
+  <si>
+    <t>04-Jun-2025</t>
+  </si>
+  <si>
+    <t>PAPAPA</t>
+  </si>
+  <si>
+    <t>PA0202</t>
+  </si>
+  <si>
+    <t>PA1234</t>
+  </si>
+  <si>
+    <t>PA0022</t>
   </si>
   <si>
     <t>PA0101</t>
   </si>
   <si>
-    <t>Var2</t>
+    <t>PA0333</t>
+  </si>
+  <si>
+    <t>PA0007</t>
+  </si>
+  <si>
+    <t>PA0102</t>
+  </si>
+  <si>
+    <t>PA1111</t>
+  </si>
+  <si>
+    <t>PA0001</t>
+  </si>
+  <si>
+    <t>PA5555</t>
+  </si>
+  <si>
+    <t>PA7333</t>
+  </si>
+  <si>
+    <t>PA1212</t>
+  </si>
+  <si>
+    <t>PA1112</t>
+  </si>
+  <si>
+    <t>PA1235</t>
+  </si>
+  <si>
+    <t>PA7777</t>
+  </si>
+  <si>
+    <t>PA4444</t>
   </si>
 </sst>
 </file>
@@ -67,14 +160,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="true"/>
-    <col min="2" max="2" width="4.77734375" customWidth="true"/>
+    <col min="1" max="1" width="12.36328125" customWidth="true"/>
+    <col min="2" max="2" width="15.54296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -89,8 +182,302 @@
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
         <v>45813</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45812</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45814</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45816</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45817</v>
       </c>
     </row>
   </sheetData>

--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="59" uniqueCount="36">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>PA4444</t>
+  </si>
+  <si>
+    <t>PA2222</t>
+  </si>
+  <si>
+    <t>PA1122</t>
   </si>
 </sst>
 </file>
@@ -160,14 +166,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="true"/>
-    <col min="2" max="2" width="15.54296875" customWidth="true"/>
+    <col min="1" max="1" width="12.21875" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -480,6 +486,54 @@
         <v>45817</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45818</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -121,12 +121,15 @@
   </si>
   <si>
     <t>PA1122</t>
+  </si>
+  <si>
+    <t>PA3232</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -166,14 +169,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="1" max="1" width="12.37890625" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,6 +537,14 @@
         <v>45818</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45818</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>PA3232</t>
+  </si>
+  <si>
+    <t>PA7777</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,6 +548,14 @@
         <v>45818</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45818</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="74" uniqueCount="48">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -127,12 +127,42 @@
   </si>
   <si>
     <t>PA7777</t>
+  </si>
+  <si>
+    <t>PA1214</t>
+  </si>
+  <si>
+    <t>PA8989</t>
+  </si>
+  <si>
+    <t>PA8888</t>
+  </si>
+  <si>
+    <t>PA7779</t>
+  </si>
+  <si>
+    <t>PA3636</t>
+  </si>
+  <si>
+    <t>PA0909</t>
+  </si>
+  <si>
+    <t>PA4354</t>
+  </si>
+  <si>
+    <t>PA7657</t>
+  </si>
+  <si>
+    <t>PA0907</t>
+  </si>
+  <si>
+    <t>PA0706</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -172,14 +202,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.37890625" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="12.21875" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,6 +586,110 @@
         <v>45818</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45811</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45823</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="75" uniqueCount="48">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -202,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,6 +690,14 @@
         <v>45823</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45819</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -18,7 +18,7 @@
     <t>IDdelpaciente</t>
   </si>
   <si>
-    <t>PA1234</t>
+    <t>PA1212</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -30,7 +30,7 @@
     <t>Resultados</t>
   </si>
   <si>
-    <t>PA4563</t>
+    <t>sano</t>
   </si>
 </sst>
 </file>
@@ -76,14 +76,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="15.5546875" customWidth="true"/>
+    <col min="2" max="2" width="5.77734375" customWidth="true"/>
     <col min="3" max="3" width="14.77734375" customWidth="true"/>
     <col min="4" max="4" width="9.88671875" customWidth="true"/>
   </cols>
@@ -107,20 +107,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>45819</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="125" uniqueCount="11">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -31,6 +31,21 @@
   </si>
   <si>
     <t>sano</t>
+  </si>
+  <si>
+    <t>PA1111</t>
+  </si>
+  <si>
+    <t>vivax</t>
+  </si>
+  <si>
+    <t>PA1234</t>
+  </si>
+  <si>
+    <t>falciparum</t>
+  </si>
+  <si>
+    <t>PA0000</t>
   </si>
 </sst>
 </file>
@@ -76,14 +91,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.21875" customWidth="true"/>
-    <col min="2" max="2" width="5.77734375" customWidth="true"/>
+    <col min="2" max="2" width="15.5546875" customWidth="true"/>
     <col min="3" max="3" width="14.77734375" customWidth="true"/>
     <col min="4" max="4" width="9.88671875" customWidth="true"/>
   </cols>
@@ -114,6 +129,64 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45810</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45817</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/Datos_paciente.xlsx
+++ b/Datos_paciente.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="125" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="158" uniqueCount="12">
   <si>
     <t>IDdelpaciente</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>PA0000</t>
+  </si>
+  <si>
+    <t>PA7777</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -187,6 +190,18 @@
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45819</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>